--- a/src/test/java/data/excel/registrationData.xlsx
+++ b/src/test/java/data/excel/registrationData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI\Automation\AutomationFrameworkTry\src\test\java\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI\Automation\AutomationFrameworkTry\src\test\java\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -40,7 +40,7 @@
     <t>cairo</t>
   </si>
   <si>
-    <t>aya33333@gmail.com</t>
+    <t>aya3333333@gmail.com</t>
   </si>
 </sst>
 </file>
